--- a/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic50implement/obj_recordpercentage0parallel_number3dynamic50implement_34959.xlsx
+++ b/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic50implement/obj_recordpercentage0parallel_number3dynamic50implement_34959.xlsx
@@ -515,49 +515,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="C2" t="n">
-        <v>6560.094</v>
+        <v>6375.45</v>
       </c>
       <c r="D2" t="n">
-        <v>11.8</v>
+        <v>28.8</v>
       </c>
       <c r="E2" t="n">
-        <v>-3439.2</v>
+        <v>-7909.033</v>
       </c>
       <c r="F2" t="n">
-        <v>5925.846</v>
+        <v>12766.234</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>2400.688</v>
+        <v>-1179.679</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1452</v>
+        <v>2562</v>
       </c>
       <c r="M2" t="n">
-        <v>47.40600000000001</v>
+        <v>102.13</v>
       </c>
       <c r="N2" t="n">
-        <v>2580</v>
+        <v>4698</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.833592699999997</v>
+        <v>4.594325099999992</v>
       </c>
     </row>
   </sheetData>
